--- a/biology/Zoologie/Cissia_lesbia/Cissia_lesbia.xlsx
+++ b/biology/Zoologie/Cissia_lesbia/Cissia_lesbia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Cissia lesbia est une  espèce de papillons de la famille des Nymphalidae et de la sous-famille des Satyrinae et du genre Cissia.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cissia lesbia a été décrit par Otto Staudinger en 1886 sous le nom d' Euptychia lesbia[1].
-Noms vernaculaires
-Cissia lesbia se nomme Lesbia Satyr en anglais [2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cissia lesbia a été décrit par Otto Staudinger en 1886 sous le nom d' Euptychia lesbia.
 </t>
         </is>
       </c>
@@ -541,10 +553,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cissia lesbia se nomme Lesbia Satyr en anglais .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cissia_lesbia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cissia_lesbia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un papillon au dessus beige foncé  rayé de marron, bordé de trois fines lignes marron parallèles avec aux antérieures un ocelle à l'apex et aux postérieures deux ocelles dont un gros ocelle doublement pupillé de clair et cerclé de jaune.
 Le revers est gris beige zébré de deux bandes marron avec de fines lignes marron parallèles en bordure, un ocelle pupillé et cerclé de jaune à l'apex des antérieures et, aux ailes postérieures, entre deux gros ocelles doublement dont celui dans l'aire anale est surmonté d'un zone orangée, une ligne submarginale de marques argentées.
@@ -552,37 +603,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cissia_lesbia</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cissia_lesbia</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En Guyane il vole toute l'année[3].
-Plantes hôtes</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -604,16 +624,121 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Guyane il vole toute l'année.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cissia_lesbia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cissia_lesbia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cissia lesbia est présent dans le bassin amazonien, au Brésil et en Guyane[1],[3].
-Biotope
-En Guyane il réside sur les collines[3].
-Protection
-Pas de statut de protection particulier
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cissia lesbia est présent dans le bassin amazonien, au Brésil et en Guyane,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cissia_lesbia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cissia_lesbia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Guyane il réside sur les collines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cissia_lesbia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cissia_lesbia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
 Sur les autres projets Wikimedia :
 Cissia lesbia, sur Wikimedia CommonsCissia lesbia, sur Wikispecies
 </t>
